--- a/docs/Uploads/BookData.xlsx
+++ b/docs/Uploads/BookData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D6F55-602E-421B-9557-F8472D953C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91BC0C3-DF46-47F6-BB65-693F0FE87219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>2023-03-03</t>
   </si>
   <si>
-    <t>~/Library/img/book/book.jpg</t>
+    <t>~/img/book/book.jpg</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
